--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\lottery-master\server\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\lottery-change\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC506B3F-DF8C-44D7-A21B-D7146544045C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AC3563-3B29-4A6C-A94A-EED370E78DE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="553">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1359,171 +1359,6 @@
     <t>码L55</t>
   </si>
   <si>
-    <t>码A01</t>
-  </si>
-  <si>
-    <t>码A02</t>
-  </si>
-  <si>
-    <t>码A03</t>
-  </si>
-  <si>
-    <t>码A04</t>
-  </si>
-  <si>
-    <t>码A05</t>
-  </si>
-  <si>
-    <t>码A06</t>
-  </si>
-  <si>
-    <t>码A07</t>
-  </si>
-  <si>
-    <t>码A08</t>
-  </si>
-  <si>
-    <t>码A09</t>
-  </si>
-  <si>
-    <t>码A10</t>
-  </si>
-  <si>
-    <t>码A11</t>
-  </si>
-  <si>
-    <t>码A12</t>
-  </si>
-  <si>
-    <t>码A13</t>
-  </si>
-  <si>
-    <t>码A14</t>
-  </si>
-  <si>
-    <t>码A15</t>
-  </si>
-  <si>
-    <t>码A16</t>
-  </si>
-  <si>
-    <t>码A17</t>
-  </si>
-  <si>
-    <t>码A18</t>
-  </si>
-  <si>
-    <t>码A19</t>
-  </si>
-  <si>
-    <t>码A20</t>
-  </si>
-  <si>
-    <t>码A21</t>
-  </si>
-  <si>
-    <t>码A22</t>
-  </si>
-  <si>
-    <t>码A23</t>
-  </si>
-  <si>
-    <t>码A24</t>
-  </si>
-  <si>
-    <t>码A25</t>
-  </si>
-  <si>
-    <t>码A26</t>
-  </si>
-  <si>
-    <t>码A27</t>
-  </si>
-  <si>
-    <t>码A28</t>
-  </si>
-  <si>
-    <t>码A29</t>
-  </si>
-  <si>
-    <t>码A30</t>
-  </si>
-  <si>
-    <t>码A31</t>
-  </si>
-  <si>
-    <t>码A32</t>
-  </si>
-  <si>
-    <t>码A33</t>
-  </si>
-  <si>
-    <t>码A34</t>
-  </si>
-  <si>
-    <t>码A35</t>
-  </si>
-  <si>
-    <t>码A36</t>
-  </si>
-  <si>
-    <t>码A37</t>
-  </si>
-  <si>
-    <t>码A38</t>
-  </si>
-  <si>
-    <t>码A39</t>
-  </si>
-  <si>
-    <t>码A40</t>
-  </si>
-  <si>
-    <t>码A41</t>
-  </si>
-  <si>
-    <t>码A42</t>
-  </si>
-  <si>
-    <t>码A43</t>
-  </si>
-  <si>
-    <t>码A44</t>
-  </si>
-  <si>
-    <t>码A45</t>
-  </si>
-  <si>
-    <t>码A46</t>
-  </si>
-  <si>
-    <t>码A47</t>
-  </si>
-  <si>
-    <t>码A48</t>
-  </si>
-  <si>
-    <t>码A49</t>
-  </si>
-  <si>
-    <t>码A50</t>
-  </si>
-  <si>
-    <t>码A51</t>
-  </si>
-  <si>
-    <t>码A52</t>
-  </si>
-  <si>
-    <t>码A53</t>
-  </si>
-  <si>
-    <t>码A54</t>
-  </si>
-  <si>
-    <t>码A55</t>
-  </si>
-  <si>
     <t>码W01</t>
   </si>
   <si>
@@ -1687,501 +1522,6 @@
   </si>
   <si>
     <t>码W55</t>
-  </si>
-  <si>
-    <t>码C01</t>
-  </si>
-  <si>
-    <t>码C02</t>
-  </si>
-  <si>
-    <t>码C03</t>
-  </si>
-  <si>
-    <t>码C04</t>
-  </si>
-  <si>
-    <t>码C05</t>
-  </si>
-  <si>
-    <t>码C06</t>
-  </si>
-  <si>
-    <t>码C07</t>
-  </si>
-  <si>
-    <t>码C08</t>
-  </si>
-  <si>
-    <t>码C09</t>
-  </si>
-  <si>
-    <t>码C10</t>
-  </si>
-  <si>
-    <t>码C11</t>
-  </si>
-  <si>
-    <t>码C12</t>
-  </si>
-  <si>
-    <t>码C13</t>
-  </si>
-  <si>
-    <t>码C14</t>
-  </si>
-  <si>
-    <t>码C15</t>
-  </si>
-  <si>
-    <t>码C16</t>
-  </si>
-  <si>
-    <t>码C17</t>
-  </si>
-  <si>
-    <t>码C18</t>
-  </si>
-  <si>
-    <t>码C19</t>
-  </si>
-  <si>
-    <t>码C20</t>
-  </si>
-  <si>
-    <t>码C21</t>
-  </si>
-  <si>
-    <t>码C22</t>
-  </si>
-  <si>
-    <t>码C23</t>
-  </si>
-  <si>
-    <t>码C24</t>
-  </si>
-  <si>
-    <t>码C25</t>
-  </si>
-  <si>
-    <t>码C26</t>
-  </si>
-  <si>
-    <t>码C27</t>
-  </si>
-  <si>
-    <t>码C28</t>
-  </si>
-  <si>
-    <t>码C29</t>
-  </si>
-  <si>
-    <t>码C30</t>
-  </si>
-  <si>
-    <t>码C31</t>
-  </si>
-  <si>
-    <t>码C32</t>
-  </si>
-  <si>
-    <t>码C33</t>
-  </si>
-  <si>
-    <t>码C34</t>
-  </si>
-  <si>
-    <t>码C35</t>
-  </si>
-  <si>
-    <t>码C36</t>
-  </si>
-  <si>
-    <t>码C37</t>
-  </si>
-  <si>
-    <t>码C38</t>
-  </si>
-  <si>
-    <t>码C39</t>
-  </si>
-  <si>
-    <t>码C40</t>
-  </si>
-  <si>
-    <t>码C41</t>
-  </si>
-  <si>
-    <t>码C42</t>
-  </si>
-  <si>
-    <t>码C43</t>
-  </si>
-  <si>
-    <t>码C44</t>
-  </si>
-  <si>
-    <t>码C45</t>
-  </si>
-  <si>
-    <t>码C46</t>
-  </si>
-  <si>
-    <t>码C47</t>
-  </si>
-  <si>
-    <t>码C48</t>
-  </si>
-  <si>
-    <t>码C49</t>
-  </si>
-  <si>
-    <t>码C50</t>
-  </si>
-  <si>
-    <t>码C51</t>
-  </si>
-  <si>
-    <t>码C52</t>
-  </si>
-  <si>
-    <t>码C53</t>
-  </si>
-  <si>
-    <t>码C54</t>
-  </si>
-  <si>
-    <t>码C55</t>
-  </si>
-  <si>
-    <t>码O01</t>
-  </si>
-  <si>
-    <t>码O02</t>
-  </si>
-  <si>
-    <t>码O03</t>
-  </si>
-  <si>
-    <t>码O04</t>
-  </si>
-  <si>
-    <t>码O05</t>
-  </si>
-  <si>
-    <t>码O06</t>
-  </si>
-  <si>
-    <t>码O07</t>
-  </si>
-  <si>
-    <t>码O08</t>
-  </si>
-  <si>
-    <t>码O09</t>
-  </si>
-  <si>
-    <t>码O10</t>
-  </si>
-  <si>
-    <t>码O11</t>
-  </si>
-  <si>
-    <t>码O12</t>
-  </si>
-  <si>
-    <t>码O13</t>
-  </si>
-  <si>
-    <t>码O14</t>
-  </si>
-  <si>
-    <t>码O15</t>
-  </si>
-  <si>
-    <t>码O16</t>
-  </si>
-  <si>
-    <t>码O17</t>
-  </si>
-  <si>
-    <t>码O18</t>
-  </si>
-  <si>
-    <t>码O19</t>
-  </si>
-  <si>
-    <t>码O20</t>
-  </si>
-  <si>
-    <t>码O21</t>
-  </si>
-  <si>
-    <t>码O22</t>
-  </si>
-  <si>
-    <t>码O23</t>
-  </si>
-  <si>
-    <t>码O24</t>
-  </si>
-  <si>
-    <t>码O25</t>
-  </si>
-  <si>
-    <t>码O26</t>
-  </si>
-  <si>
-    <t>码O27</t>
-  </si>
-  <si>
-    <t>码O28</t>
-  </si>
-  <si>
-    <t>码O29</t>
-  </si>
-  <si>
-    <t>码O30</t>
-  </si>
-  <si>
-    <t>码O31</t>
-  </si>
-  <si>
-    <t>码O32</t>
-  </si>
-  <si>
-    <t>码O33</t>
-  </si>
-  <si>
-    <t>码O34</t>
-  </si>
-  <si>
-    <t>码O35</t>
-  </si>
-  <si>
-    <t>码O36</t>
-  </si>
-  <si>
-    <t>码O37</t>
-  </si>
-  <si>
-    <t>码O38</t>
-  </si>
-  <si>
-    <t>码O39</t>
-  </si>
-  <si>
-    <t>码O40</t>
-  </si>
-  <si>
-    <t>码O41</t>
-  </si>
-  <si>
-    <t>码O42</t>
-  </si>
-  <si>
-    <t>码O43</t>
-  </si>
-  <si>
-    <t>码O44</t>
-  </si>
-  <si>
-    <t>码O45</t>
-  </si>
-  <si>
-    <t>码O46</t>
-  </si>
-  <si>
-    <t>码O47</t>
-  </si>
-  <si>
-    <t>码O48</t>
-  </si>
-  <si>
-    <t>码O49</t>
-  </si>
-  <si>
-    <t>码O50</t>
-  </si>
-  <si>
-    <t>码O51</t>
-  </si>
-  <si>
-    <t>码O52</t>
-  </si>
-  <si>
-    <t>码O53</t>
-  </si>
-  <si>
-    <t>码O54</t>
-  </si>
-  <si>
-    <t>码O55</t>
-  </si>
-  <si>
-    <t>码D01</t>
-  </si>
-  <si>
-    <t>码D02</t>
-  </si>
-  <si>
-    <t>码D03</t>
-  </si>
-  <si>
-    <t>码D04</t>
-  </si>
-  <si>
-    <t>码D05</t>
-  </si>
-  <si>
-    <t>码D06</t>
-  </si>
-  <si>
-    <t>码D07</t>
-  </si>
-  <si>
-    <t>码D08</t>
-  </si>
-  <si>
-    <t>码D09</t>
-  </si>
-  <si>
-    <t>码D10</t>
-  </si>
-  <si>
-    <t>码D11</t>
-  </si>
-  <si>
-    <t>码D12</t>
-  </si>
-  <si>
-    <t>码D13</t>
-  </si>
-  <si>
-    <t>码D14</t>
-  </si>
-  <si>
-    <t>码D15</t>
-  </si>
-  <si>
-    <t>码D16</t>
-  </si>
-  <si>
-    <t>码D17</t>
-  </si>
-  <si>
-    <t>码D18</t>
-  </si>
-  <si>
-    <t>码D19</t>
-  </si>
-  <si>
-    <t>码D20</t>
-  </si>
-  <si>
-    <t>码D21</t>
-  </si>
-  <si>
-    <t>码D22</t>
-  </si>
-  <si>
-    <t>码D23</t>
-  </si>
-  <si>
-    <t>码D24</t>
-  </si>
-  <si>
-    <t>码D25</t>
-  </si>
-  <si>
-    <t>码D26</t>
-  </si>
-  <si>
-    <t>码D27</t>
-  </si>
-  <si>
-    <t>码D28</t>
-  </si>
-  <si>
-    <t>码D29</t>
-  </si>
-  <si>
-    <t>码D30</t>
-  </si>
-  <si>
-    <t>码D31</t>
-  </si>
-  <si>
-    <t>码D32</t>
-  </si>
-  <si>
-    <t>码D33</t>
-  </si>
-  <si>
-    <t>码D34</t>
-  </si>
-  <si>
-    <t>码D35</t>
-  </si>
-  <si>
-    <t>码D36</t>
-  </si>
-  <si>
-    <t>码D37</t>
-  </si>
-  <si>
-    <t>码D38</t>
-  </si>
-  <si>
-    <t>码D39</t>
-  </si>
-  <si>
-    <t>码D40</t>
-  </si>
-  <si>
-    <t>码D41</t>
-  </si>
-  <si>
-    <t>码D42</t>
-  </si>
-  <si>
-    <t>码D43</t>
-  </si>
-  <si>
-    <t>码D44</t>
-  </si>
-  <si>
-    <t>码D45</t>
-  </si>
-  <si>
-    <t>码D46</t>
-  </si>
-  <si>
-    <t>码D47</t>
-  </si>
-  <si>
-    <t>码D48</t>
-  </si>
-  <si>
-    <t>码D49</t>
-  </si>
-  <si>
-    <t>码D50</t>
-  </si>
-  <si>
-    <t>码D51</t>
-  </si>
-  <si>
-    <t>码D52</t>
-  </si>
-  <si>
-    <t>码D53</t>
-  </si>
-  <si>
-    <t>码D54</t>
-  </si>
-  <si>
-    <t>码D55</t>
   </si>
   <si>
     <t>码E01</t>
@@ -2767,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C771"/>
+  <dimension ref="A1:C551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A756" workbookViewId="0">
-      <selection activeCell="D763" sqref="D763"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="D435" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.73046875" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
@@ -6639,1546 +5979,6 @@
       </c>
       <c r="C551" s="3"/>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A552" s="2"/>
-      <c r="B552" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C552" s="3"/>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A553" s="2"/>
-      <c r="B553" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C553" s="3"/>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A554" s="2"/>
-      <c r="B554" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C554" s="3"/>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A555" s="2"/>
-      <c r="B555" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C555" s="3"/>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A556" s="2"/>
-      <c r="B556" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C556" s="3"/>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A557" s="2"/>
-      <c r="B557" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C557" s="3"/>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A558" s="2"/>
-      <c r="B558" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C558" s="3"/>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A559" s="2"/>
-      <c r="B559" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C559" s="3"/>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A560" s="2"/>
-      <c r="B560" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C560" s="3"/>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A561" s="2"/>
-      <c r="B561" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C561" s="3"/>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A562" s="2"/>
-      <c r="B562" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C562" s="3"/>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A563" s="2"/>
-      <c r="B563" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C563" s="3"/>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A564" s="2"/>
-      <c r="B564" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C564" s="3"/>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A565" s="2"/>
-      <c r="B565" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C565" s="3"/>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A566" s="2"/>
-      <c r="B566" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C566" s="3"/>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A567" s="2"/>
-      <c r="B567" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C567" s="3"/>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A568" s="2"/>
-      <c r="B568" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C568" s="3"/>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A569" s="2"/>
-      <c r="B569" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C569" s="3"/>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A570" s="2"/>
-      <c r="B570" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C570" s="3"/>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A571" s="2"/>
-      <c r="B571" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C571" s="3"/>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A572" s="2"/>
-      <c r="B572" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C572" s="3"/>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A573" s="2"/>
-      <c r="B573" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C573" s="3"/>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A574" s="2"/>
-      <c r="B574" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C574" s="3"/>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A575" s="2"/>
-      <c r="B575" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C575" s="3"/>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A576" s="2"/>
-      <c r="B576" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C576" s="3"/>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A577" s="2"/>
-      <c r="B577" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C577" s="3"/>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A578" s="2"/>
-      <c r="B578" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C578" s="3"/>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A579" s="2"/>
-      <c r="B579" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C579" s="3"/>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A580" s="2"/>
-      <c r="B580" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C580" s="3"/>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A581" s="2"/>
-      <c r="B581" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C581" s="3"/>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A582" s="2"/>
-      <c r="B582" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C582" s="3"/>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A583" s="2"/>
-      <c r="B583" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C583" s="3"/>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A584" s="2"/>
-      <c r="B584" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C584" s="3"/>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A585" s="2"/>
-      <c r="B585" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C585" s="3"/>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A586" s="2"/>
-      <c r="B586" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C586" s="3"/>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A587" s="2"/>
-      <c r="B587" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C587" s="3"/>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A588" s="2"/>
-      <c r="B588" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C588" s="3"/>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A589" s="2"/>
-      <c r="B589" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C589" s="3"/>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A590" s="2"/>
-      <c r="B590" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C590" s="3"/>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A591" s="2"/>
-      <c r="B591" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C591" s="3"/>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A592" s="2"/>
-      <c r="B592" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C592" s="3"/>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A593" s="2"/>
-      <c r="B593" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C593" s="3"/>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A594" s="2"/>
-      <c r="B594" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C594" s="3"/>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A595" s="2"/>
-      <c r="B595" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C595" s="3"/>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A596" s="2"/>
-      <c r="B596" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C596" s="3"/>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A597" s="2"/>
-      <c r="B597" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C597" s="3"/>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A598" s="2"/>
-      <c r="B598" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C598" s="3"/>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A599" s="2"/>
-      <c r="B599" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C599" s="3"/>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A600" s="2"/>
-      <c r="B600" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C600" s="3"/>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A601" s="2"/>
-      <c r="B601" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C601" s="3"/>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A602" s="2"/>
-      <c r="B602" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C602" s="3"/>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A603" s="2"/>
-      <c r="B603" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C603" s="3"/>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A604" s="2"/>
-      <c r="B604" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C604" s="3"/>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A605" s="2"/>
-      <c r="B605" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C605" s="3"/>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A606" s="2"/>
-      <c r="B606" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C606" s="3"/>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A607" s="2"/>
-      <c r="B607" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C607" s="3"/>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A608" s="2"/>
-      <c r="B608" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C608" s="3"/>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A609" s="2"/>
-      <c r="B609" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C609" s="3"/>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A610" s="2"/>
-      <c r="B610" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C610" s="3"/>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A611" s="2"/>
-      <c r="B611" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C611" s="3"/>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A612" s="2"/>
-      <c r="B612" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C612" s="3"/>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A613" s="2"/>
-      <c r="B613" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C613" s="3"/>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A614" s="2"/>
-      <c r="B614" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C614" s="3"/>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A615" s="2"/>
-      <c r="B615" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C615" s="3"/>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A616" s="2"/>
-      <c r="B616" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C616" s="3"/>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A617" s="2"/>
-      <c r="B617" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C617" s="3"/>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A618" s="2"/>
-      <c r="B618" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="C618" s="3"/>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A619" s="2"/>
-      <c r="B619" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C619" s="3"/>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A620" s="2"/>
-      <c r="B620" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="C620" s="3"/>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A621" s="2"/>
-      <c r="B621" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C621" s="3"/>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A622" s="2"/>
-      <c r="B622" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C622" s="3"/>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A623" s="2"/>
-      <c r="B623" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C623" s="3"/>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A624" s="2"/>
-      <c r="B624" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C624" s="3"/>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A625" s="2"/>
-      <c r="B625" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C625" s="3"/>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A626" s="2"/>
-      <c r="B626" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C626" s="3"/>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A627" s="2"/>
-      <c r="B627" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C627" s="3"/>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A628" s="2"/>
-      <c r="B628" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C628" s="3"/>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A629" s="2"/>
-      <c r="B629" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C629" s="3"/>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A630" s="2"/>
-      <c r="B630" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C630" s="3"/>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A631" s="2"/>
-      <c r="B631" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C631" s="3"/>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A632" s="2"/>
-      <c r="B632" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C632" s="3"/>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A633" s="2"/>
-      <c r="B633" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C633" s="3"/>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A634" s="2"/>
-      <c r="B634" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C634" s="3"/>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A635" s="2"/>
-      <c r="B635" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C635" s="3"/>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A636" s="2"/>
-      <c r="B636" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C636" s="3"/>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A637" s="2"/>
-      <c r="B637" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C637" s="3"/>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A638" s="2"/>
-      <c r="B638" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C638" s="3"/>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A639" s="2"/>
-      <c r="B639" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C639" s="3"/>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A640" s="2"/>
-      <c r="B640" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C640" s="3"/>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A641" s="2"/>
-      <c r="B641" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C641" s="3"/>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A642" s="2"/>
-      <c r="B642" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C642" s="3"/>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A643" s="2"/>
-      <c r="B643" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C643" s="3"/>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A644" s="2"/>
-      <c r="B644" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C644" s="3"/>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A645" s="2"/>
-      <c r="B645" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C645" s="3"/>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A646" s="2"/>
-      <c r="B646" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C646" s="3"/>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A647" s="2"/>
-      <c r="B647" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C647" s="3"/>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A648" s="2"/>
-      <c r="B648" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C648" s="3"/>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A649" s="2"/>
-      <c r="B649" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C649" s="3"/>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A650" s="2"/>
-      <c r="B650" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C650" s="3"/>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A651" s="2"/>
-      <c r="B651" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C651" s="3"/>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A652" s="2"/>
-      <c r="B652" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C652" s="3"/>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A653" s="2"/>
-      <c r="B653" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C653" s="3"/>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A654" s="2"/>
-      <c r="B654" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C654" s="3"/>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A655" s="2"/>
-      <c r="B655" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="C655" s="3"/>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A656" s="2"/>
-      <c r="B656" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C656" s="3"/>
-    </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A657" s="2"/>
-      <c r="B657" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C657" s="3"/>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A658" s="2"/>
-      <c r="B658" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C658" s="3"/>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A659" s="2"/>
-      <c r="B659" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="C659" s="3"/>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A660" s="2"/>
-      <c r="B660" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C660" s="3"/>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A661" s="2"/>
-      <c r="B661" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C661" s="3"/>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A662" s="2"/>
-      <c r="B662" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C662" s="3"/>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A663" s="2"/>
-      <c r="B663" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C663" s="3"/>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A664" s="2"/>
-      <c r="B664" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C664" s="3"/>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A665" s="2"/>
-      <c r="B665" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C665" s="3"/>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A666" s="2"/>
-      <c r="B666" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C666" s="3"/>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A667" s="2"/>
-      <c r="B667" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C667" s="3"/>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A668" s="2"/>
-      <c r="B668" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C668" s="3"/>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A669" s="2"/>
-      <c r="B669" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="C669" s="3"/>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A670" s="2"/>
-      <c r="B670" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C670" s="3"/>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A671" s="2"/>
-      <c r="B671" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C671" s="3"/>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A672" s="2"/>
-      <c r="B672" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C672" s="3"/>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A673" s="2"/>
-      <c r="B673" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C673" s="3"/>
-    </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A674" s="2"/>
-      <c r="B674" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C674" s="3"/>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A675" s="2"/>
-      <c r="B675" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C675" s="3"/>
-    </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A676" s="2"/>
-      <c r="B676" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="C676" s="3"/>
-    </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A677" s="2"/>
-      <c r="B677" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="C677" s="3"/>
-    </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A678" s="2"/>
-      <c r="B678" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="C678" s="3"/>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A679" s="2"/>
-      <c r="B679" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C679" s="3"/>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A680" s="2"/>
-      <c r="B680" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C680" s="3"/>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A681" s="2"/>
-      <c r="B681" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C681" s="3"/>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A682" s="2"/>
-      <c r="B682" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C682" s="3"/>
-    </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A683" s="2"/>
-      <c r="B683" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="C683" s="3"/>
-    </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A684" s="2"/>
-      <c r="B684" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="C684" s="3"/>
-    </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A685" s="2"/>
-      <c r="B685" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="C685" s="3"/>
-    </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A686" s="2"/>
-      <c r="B686" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="C686" s="3"/>
-    </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A687" s="2"/>
-      <c r="B687" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C687" s="3"/>
-    </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A688" s="2"/>
-      <c r="B688" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C688" s="3"/>
-    </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A689" s="2"/>
-      <c r="B689" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C689" s="3"/>
-    </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A690" s="2"/>
-      <c r="B690" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="C690" s="3"/>
-    </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A691" s="2"/>
-      <c r="B691" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C691" s="3"/>
-    </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A692" s="2"/>
-      <c r="B692" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="C692" s="3"/>
-    </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A693" s="2"/>
-      <c r="B693" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C693" s="3"/>
-    </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A694" s="2"/>
-      <c r="B694" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C694" s="3"/>
-    </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A695" s="2"/>
-      <c r="B695" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C695" s="3"/>
-    </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A696" s="2"/>
-      <c r="B696" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C696" s="3"/>
-    </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A697" s="2"/>
-      <c r="B697" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C697" s="3"/>
-    </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A698" s="2"/>
-      <c r="B698" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C698" s="3"/>
-    </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A699" s="2"/>
-      <c r="B699" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C699" s="3"/>
-    </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A700" s="2"/>
-      <c r="B700" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C700" s="3"/>
-    </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A701" s="2"/>
-      <c r="B701" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="C701" s="3"/>
-    </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A702" s="2"/>
-      <c r="B702" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="C702" s="3"/>
-    </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A703" s="2"/>
-      <c r="B703" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="C703" s="3"/>
-    </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A704" s="2"/>
-      <c r="B704" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="C704" s="3"/>
-    </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A705" s="2"/>
-      <c r="B705" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C705" s="3"/>
-    </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A706" s="2"/>
-      <c r="B706" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C706" s="3"/>
-    </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A707" s="2"/>
-      <c r="B707" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C707" s="3"/>
-    </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A708" s="2"/>
-      <c r="B708" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="C708" s="3"/>
-    </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A709" s="2"/>
-      <c r="B709" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C709" s="3"/>
-    </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A710" s="2"/>
-      <c r="B710" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="C710" s="3"/>
-    </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A711" s="2"/>
-      <c r="B711" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C711" s="3"/>
-    </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A712" s="2"/>
-      <c r="B712" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="C712" s="3"/>
-    </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A713" s="2"/>
-      <c r="B713" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="C713" s="3"/>
-    </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A714" s="2"/>
-      <c r="B714" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="C714" s="3"/>
-    </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A715" s="2"/>
-      <c r="B715" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C715" s="3"/>
-    </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A716" s="2"/>
-      <c r="B716" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="C716" s="3"/>
-    </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A717" s="2"/>
-      <c r="B717" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C717" s="3"/>
-    </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A718" s="2"/>
-      <c r="B718" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="C718" s="3"/>
-    </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A719" s="2"/>
-      <c r="B719" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C719" s="3"/>
-    </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A720" s="2"/>
-      <c r="B720" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C720" s="3"/>
-    </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A721" s="2"/>
-      <c r="B721" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C721" s="3"/>
-    </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A722" s="2"/>
-      <c r="B722" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="C722" s="3"/>
-    </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A723" s="2"/>
-      <c r="B723" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C723" s="3"/>
-    </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A724" s="2"/>
-      <c r="B724" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C724" s="3"/>
-    </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A725" s="2"/>
-      <c r="B725" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="C725" s="3"/>
-    </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A726" s="2"/>
-      <c r="B726" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C726" s="3"/>
-    </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A727" s="2"/>
-      <c r="B727" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C727" s="3"/>
-    </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A728" s="2"/>
-      <c r="B728" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C728" s="3"/>
-    </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A729" s="2"/>
-      <c r="B729" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="C729" s="3"/>
-    </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A730" s="2"/>
-      <c r="B730" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C730" s="3"/>
-    </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A731" s="2"/>
-      <c r="B731" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C731" s="3"/>
-    </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A732" s="2"/>
-      <c r="B732" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C732" s="3"/>
-    </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A733" s="2"/>
-      <c r="B733" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C733" s="3"/>
-    </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A734" s="2"/>
-      <c r="B734" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="C734" s="3"/>
-    </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A735" s="2"/>
-      <c r="B735" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C735" s="3"/>
-    </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A736" s="2"/>
-      <c r="B736" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C736" s="3"/>
-    </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A737" s="2"/>
-      <c r="B737" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C737" s="3"/>
-    </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A738" s="2"/>
-      <c r="B738" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="C738" s="3"/>
-    </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A739" s="2"/>
-      <c r="B739" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="C739" s="3"/>
-    </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A740" s="2"/>
-      <c r="B740" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="C740" s="3"/>
-    </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A741" s="2"/>
-      <c r="B741" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="C741" s="3"/>
-    </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A742" s="2"/>
-      <c r="B742" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="C742" s="3"/>
-    </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A743" s="2"/>
-      <c r="B743" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C743" s="3"/>
-    </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A744" s="2"/>
-      <c r="B744" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="C744" s="3"/>
-    </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A745" s="2"/>
-      <c r="B745" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C745" s="3"/>
-    </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A746" s="2"/>
-      <c r="B746" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="C746" s="3"/>
-    </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A747" s="2"/>
-      <c r="B747" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C747" s="3"/>
-    </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A748" s="2"/>
-      <c r="B748" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="C748" s="3"/>
-    </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A749" s="2"/>
-      <c r="B749" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="C749" s="3"/>
-    </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A750" s="2"/>
-      <c r="B750" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="C750" s="3"/>
-    </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A751" s="2"/>
-      <c r="B751" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="C751" s="3"/>
-    </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A752" s="2"/>
-      <c r="B752" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="C752" s="3"/>
-    </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A753" s="2"/>
-      <c r="B753" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C753" s="3"/>
-    </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A754" s="2"/>
-      <c r="B754" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="C754" s="3"/>
-    </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A755" s="2"/>
-      <c r="B755" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="C755" s="3"/>
-    </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A756" s="2"/>
-      <c r="B756" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="C756" s="3"/>
-    </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A757" s="2"/>
-      <c r="B757" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="C757" s="3"/>
-    </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A758" s="2"/>
-      <c r="B758" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C758" s="3"/>
-    </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A759" s="2"/>
-      <c r="B759" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="C759" s="3"/>
-    </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A760" s="2"/>
-      <c r="B760" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C760" s="3"/>
-    </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A761" s="2"/>
-      <c r="B761" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="C761" s="3"/>
-    </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A762" s="2"/>
-      <c r="B762" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="C762" s="3"/>
-    </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A763" s="2"/>
-      <c r="B763" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C763" s="3"/>
-    </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A764" s="2"/>
-      <c r="B764" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="C764" s="3"/>
-    </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A765" s="2"/>
-      <c r="B765" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C765" s="3"/>
-    </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A766" s="2"/>
-      <c r="B766" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="C766" s="3"/>
-    </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A767" s="2"/>
-      <c r="B767" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C767" s="3"/>
-    </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A768" s="2"/>
-      <c r="B768" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C768" s="3"/>
-    </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A769" s="2"/>
-      <c r="B769" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="C769" s="3"/>
-    </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A770" s="2"/>
-      <c r="B770" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="C770" s="3"/>
-    </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A771" s="2"/>
-      <c r="B771" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="C771" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
